--- a/Gitお試し.xlsx
+++ b/Gitお試し.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0000011389764\Desktop\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0000011389764\Desktop\Test\github\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Gitインストール手順＜Windows向け＞ - IT入門書籍 スッキリシリーズ (sukkiri.jp)</t>
   </si>
@@ -58,180 +58,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ハッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・GitとGitHubの違いとは</t>
-    <rPh sb="12" eb="13">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Gitはファイルのバージョン管理を行うツール。</t>
-    <rPh sb="14" eb="16">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-Git</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-GitHub</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>世界中のユーザーが編集したコードやデザインデータを保存、共有しやすくするWebサービス.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CUI</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GUI</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・GitHubのインストールおよびID発行。</t>
-    <rPh sb="19" eb="21">
-      <t>ハッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・リポジトリの作成</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・Gitのインストール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・GitHubとの連携</t>
-    <rPh sb="9" eb="11">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・プロキシサーバの設定←これをしないとネットに繋げないため</t>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> git config --global https.proxy http://proxygate2.nic.nec.co.jp:8080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> git config --global http.proxy http://proxygate2.nic.nec.co.jp:8080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>を実行。</t>
-    <rPh sb="1" eb="3">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・git commit →　git push</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(例)
-git commit -m 'COMMENT' ファイル名
-git push origin main</t>
-    <rPh sb="1" eb="2">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・git clone</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リポジトリの複製　ただのディレクトリの複製？</t>
-    <rPh sb="6" eb="8">
-      <t>フクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・ブランチの作成 </t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名前入力→「New branch」→「Publish」</t>
-    <rPh sb="0" eb="4">
-      <t>ナマエニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>git fetch</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・ブランチへ移動</t>
-    <rPh sb="6" eb="8">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ローカルリポジトリで</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最新取得</t>
-    <rPh sb="0" eb="4">
-      <t>サイシンシュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>git brach -a</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブランチの確認</t>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>git checkout ブランチ名　ブランチへ移動</t>
-    <rPh sb="17" eb="18">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -277,21 +103,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -303,27 +120,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -349,14 +154,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1876917</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133549</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114792</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -714,173 +519,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="3.875" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <v>44533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
-        <v>44536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <v>44540</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
